--- a/mmoRpgServerFinal/src/main/resources/message/equipmentMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/equipmentMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9240"/>
+    <workbookView windowWidth="16308" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>装备id：id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>装备部位：position</t>
+  </si>
+  <si>
+    <t>装备星级：equipmentLevel</t>
   </si>
   <si>
     <t>破碎の帽子</t>
@@ -98,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,9 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,6 +124,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,13 +145,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -150,76 +205,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +268,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,55 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,97 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,41 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,16 +487,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +504,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,159 +524,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1068,15 +1067,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="72" spans="1:9">
+    <row r="1" ht="72" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,13 +1103,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1119,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -1133,13 +1135,16 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1148,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -1162,13 +1167,16 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1177,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -1191,13 +1199,16 @@
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1206,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1220,13 +1231,16 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1235,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -1249,13 +1263,16 @@
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1264,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -1278,13 +1295,16 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1293,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -1307,13 +1327,16 @@
       <c r="I8">
         <v>6</v>
       </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1322,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>22</v>
@@ -1335,6 +1358,9 @@
       </c>
       <c r="I9">
         <v>6</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgServerFinal/src/main/resources/message/equipmentMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/equipmentMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16308" windowHeight="7764"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,7 +130,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,79 +213,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +252,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +268,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,169 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,8 +465,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +528,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,41 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,142 +579,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1070,7 +1067,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1103,7 +1100,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
